--- a/src/main/resources/readingFrom_XLSX_File_.xlsx
+++ b/src/main/resources/readingFrom_XLSX_File_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>aosdn@gmail.com</t>
   </si>
@@ -201,6 +201,174 @@
   </si>
   <si>
     <t>3w88u6kq5khd@123Uu</t>
+  </si>
+  <si>
+    <t>miranda.murazik@yahoo.com</t>
+  </si>
+  <si>
+    <t>nsyrhlqfntmhd@123Uu</t>
+  </si>
+  <si>
+    <t>clifton.dare@gmail.com</t>
+  </si>
+  <si>
+    <t>l6theqwvlhd@123Uu</t>
+  </si>
+  <si>
+    <t>melvin.gutmann@gmail.com</t>
+  </si>
+  <si>
+    <t>j8vx2jysd7n5wvhhd@123Uu</t>
+  </si>
+  <si>
+    <t>frances.bahringer@gmail.com</t>
+  </si>
+  <si>
+    <t>tlufb9ojocf77hd@123Uu</t>
+  </si>
+  <si>
+    <t>jesse.heathcote@gmail.com</t>
+  </si>
+  <si>
+    <t>be8x409y8bdohd@123Uu</t>
+  </si>
+  <si>
+    <t>wilber.gerhold@yahoo.com</t>
+  </si>
+  <si>
+    <t>mwtet31l70hd@123Uu</t>
+  </si>
+  <si>
+    <t>cherelle.bins@hotmail.com</t>
+  </si>
+  <si>
+    <t>4qyx3fk04l1hd@123Uu</t>
+  </si>
+  <si>
+    <t>jacqueline.crist@yahoo.com</t>
+  </si>
+  <si>
+    <t>7glnuopoc9tphd@123Uu</t>
+  </si>
+  <si>
+    <t>bonny.hettinger@gmail.com</t>
+  </si>
+  <si>
+    <t>kenc19mmbtafl7hd@123Uu</t>
+  </si>
+  <si>
+    <t>cherie.walsh@gmail.com</t>
+  </si>
+  <si>
+    <t>xklvdbuahd@123Uu</t>
+  </si>
+  <si>
+    <t>guillermo.kassulke@hotmail.com</t>
+  </si>
+  <si>
+    <t>yyp34z5b8g8wtphd@123Uu</t>
+  </si>
+  <si>
+    <t>arianna.walker@yahoo.com</t>
+  </si>
+  <si>
+    <t>vnbo5zhh1g3x1hd@123Uu</t>
+  </si>
+  <si>
+    <t>avery.damore@gmail.com</t>
+  </si>
+  <si>
+    <t>d3gtckwuhd@123Uu</t>
+  </si>
+  <si>
+    <t>hildegard.schmeler@gmail.com</t>
+  </si>
+  <si>
+    <t>8xnersz6dfc5yq3hd@123Uu</t>
+  </si>
+  <si>
+    <t>gilberte.swaniawski@hotmail.com</t>
+  </si>
+  <si>
+    <t>3pgmuqhm2xcihahd@123Uu</t>
+  </si>
+  <si>
+    <t>edgar.flatley@gmail.com</t>
+  </si>
+  <si>
+    <t>vj636jo7uhh8hd@123Uu</t>
+  </si>
+  <si>
+    <t>carmine.sanford@gmail.com</t>
+  </si>
+  <si>
+    <t>jth7z4c7nxihd@123Uu</t>
+  </si>
+  <si>
+    <t>keenan.von@yahoo.com</t>
+  </si>
+  <si>
+    <t>qa6l7g8ky8othd@123Uu</t>
+  </si>
+  <si>
+    <t>alison.mclaughlin@yahoo.com</t>
+  </si>
+  <si>
+    <t>871bj0haje5a8s8hd@123Uu</t>
+  </si>
+  <si>
+    <t>petra.mueller@gmail.com</t>
+  </si>
+  <si>
+    <t>gvq4csz8bp2dhd@123Uu</t>
+  </si>
+  <si>
+    <t>joy.hand@yahoo.com</t>
+  </si>
+  <si>
+    <t>4evuufcfkhd@123Uu</t>
+  </si>
+  <si>
+    <t>marlin.erdman@gmail.com</t>
+  </si>
+  <si>
+    <t>6q18cr2arp23ouphd@123Uu</t>
+  </si>
+  <si>
+    <t>graig.hoppe@hotmail.com</t>
+  </si>
+  <si>
+    <t>zyzzrojc1a7phd@123Uu</t>
+  </si>
+  <si>
+    <t>lavera.cartwright@gmail.com</t>
+  </si>
+  <si>
+    <t>yske00o2139hd@123Uu</t>
+  </si>
+  <si>
+    <t>christopher.connelly@yahoo.com</t>
+  </si>
+  <si>
+    <t>oviapqfphd@123Uu</t>
+  </si>
+  <si>
+    <t>rufus.vandervort@gmail.com</t>
+  </si>
+  <si>
+    <t>n546tyfxehd@123Uu</t>
+  </si>
+  <si>
+    <t>scott.borer@yahoo.com</t>
+  </si>
+  <si>
+    <t>qtztlknqjidhd@123Uu</t>
+  </si>
+  <si>
+    <t>eloy.armstrong@yahoo.com</t>
+  </si>
+  <si>
+    <t>p9e2rtmritqm5hd@123Uu</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1421,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
@@ -1473,6 +1641,230 @@
         <v>61</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
